--- a/data/ESLO/où_questions.xlsx
+++ b/data/ESLO/où_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/ESLO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E617856-94D1-5846-B7E8-B48AA8CCD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFCC3CB-03BC-9647-A213-41FA43FFD672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-68800" yWindow="-10300" windowWidth="29240" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6683" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6691" uniqueCount="1578">
   <si>
     <t>recherche</t>
   </si>
@@ -17083,10 +17083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF739"/>
+  <dimension ref="A1:BH739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA4" zoomScale="114" workbookViewId="0">
-      <selection activeCell="AD67" sqref="AD67:AF69"/>
+    <sheetView tabSelected="1" topLeftCell="AP27" zoomScale="114" workbookViewId="0">
+      <selection activeCell="BH65" sqref="BH65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17095,7 +17095,7 @@
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -17127,7 +17127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>1430386</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -17223,7 +17223,7 @@
         <v>2424703</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -17255,7 +17255,7 @@
         <v>66273</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>1015263</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>2290143</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>1881173</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>2002487</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -17415,7 +17415,7 @@
         <v>2838929</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -17450,7 +17450,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>4129669</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -17566,8 +17566,17 @@
       <c r="AF14">
         <v>157</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="BF14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -17613,8 +17622,17 @@
       <c r="AF15">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="BF15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -18742,7 +18760,7 @@
         <v>5455792</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -18774,7 +18792,7 @@
         <v>5724292</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -18806,7 +18824,7 @@
         <v>1531163</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -18838,7 +18856,7 @@
         <v>2366551</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -18870,7 +18888,7 @@
         <v>3498276</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -18902,7 +18920,7 @@
         <v>1328672</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -18934,7 +18952,7 @@
         <v>2814167</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -18966,7 +18984,7 @@
         <v>91686</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -18998,7 +19016,7 @@
         <v>2958200</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -19030,7 +19048,7 @@
         <v>2960164</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -19062,7 +19080,7 @@
         <v>2961272</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -19094,7 +19112,7 @@
         <v>5305103</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -19126,7 +19144,7 @@
         <v>5371402</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -19158,7 +19176,7 @@
         <v>223029</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -19190,7 +19208,7 @@
         <v>995955</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -19225,7 +19243,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -19256,8 +19274,17 @@
       <c r="J64">
         <v>1876757</v>
       </c>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="BF64" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG64" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -19294,8 +19321,17 @@
       <c r="P65" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="BF65" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG65" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH65">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -19342,7 +19378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -19389,7 +19425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -19436,7 +19472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -19483,7 +19519,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -19521,7 +19557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -19559,7 +19595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -19597,7 +19633,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -19635,7 +19671,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -19673,7 +19709,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -19711,7 +19747,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -19743,7 +19779,7 @@
         <v>4082348</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -19775,7 +19811,7 @@
         <v>20777</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -19807,7 +19843,7 @@
         <v>3859315</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -19839,7 +19875,7 @@
         <v>69853</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1</v>
       </c>

--- a/data/ESLO/où_questions.xlsx
+++ b/data/ESLO/où_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/ESLO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFCC3CB-03BC-9647-A213-41FA43FFD672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0A061E-52C1-F947-90AA-43B33F0EF4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-68800" yWindow="-10300" windowWidth="29240" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9558,6 +9558,844 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B4CE-764F-A5BE-980C747FE811}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-B4CE-764F-A5BE-980C747FE811}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-B4CE-764F-A5BE-980C747FE811}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-B4CE-764F-A5BE-980C747FE811}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$BF$14:$BG$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>in situ</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>cleft</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>cleft</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BH$14:$BH$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4CE-764F-A5BE-980C747FE811}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9DFC-004E-9F95-48F36051ADA7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9DFC-004E-9F95-48F36051ADA7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9DFC-004E-9F95-48F36051ADA7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9DFC-004E-9F95-48F36051ADA7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$BF$64:$BG$65</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>in situ</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>cleft</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>cleft</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BH$64:$BH$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DFC-004E-9F95-48F36051ADA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9759,6 +10597,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13109,6 +14027,1142 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13322,6 +15376,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>643912</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>37654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>536964</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ADF0F5C-8221-094D-C7F6-9377B00F7877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>20053</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>581527</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>96031</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7400F7FC-077E-9F6D-E9F5-FAE52A320240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17085,8 +19211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP27" zoomScale="114" workbookViewId="0">
-      <selection activeCell="BH65" sqref="BH65"/>
+    <sheetView tabSelected="1" topLeftCell="AZ17" zoomScale="114" workbookViewId="0">
+      <selection activeCell="BF68" sqref="BF68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
